--- a/Pathfinding.xlsx
+++ b/Pathfinding.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EL_Bigos-1080ti\source\repos\EB_Library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046335E7-A69A-4FF7-80F6-DC32D394A886}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C294EDE-D590-491D-8C59-B23C341A9B2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28620" yWindow="32280" windowWidth="29040" windowHeight="15840" xr2:uid="{7CB2180E-9D55-4E02-AFE8-264A4AE9D0BD}"/>
+    <workbookView xWindow="46455" yWindow="36060" windowWidth="21600" windowHeight="11265" xr2:uid="{7CB2180E-9D55-4E02-AFE8-264A4AE9D0BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="41">
   <si>
     <t>1,6</t>
   </si>
@@ -116,10 +116,46 @@
     <t>next = Y et X</t>
   </si>
   <si>
-    <t>if (elementInPath.X||Y == this.X||Y)</t>
-  </si>
-  <si>
     <t>Try direct line</t>
+  </si>
+  <si>
+    <t>if (elementInPath.X OR elementInPath.Y) == (this.X OR this.Y)</t>
+  </si>
+  <si>
+    <t>2,2</t>
+  </si>
+  <si>
+    <t>4,4</t>
+  </si>
+  <si>
+    <t>3,2</t>
+  </si>
+  <si>
+    <t>4,2</t>
+  </si>
+  <si>
+    <t>4,5</t>
+  </si>
+  <si>
+    <t>4,3</t>
+  </si>
+  <si>
+    <t>5,5</t>
+  </si>
+  <si>
+    <t>5,6</t>
+  </si>
+  <si>
+    <t>5,7</t>
+  </si>
+  <si>
+    <t>2&lt;4</t>
+  </si>
+  <si>
+    <t>3&lt;4</t>
+  </si>
+  <si>
+    <t>4&lt;4</t>
   </si>
 </sst>
 </file>
@@ -259,7 +295,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -267,9 +303,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -292,6 +325,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -608,32 +647,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41173B64-13B3-438C-9F44-B6A6DE11438E}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="F11" sqref="E11:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="5.6328125" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="9" max="9" width="32" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40.08984375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -650,12 +689,18 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="B2" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="I2" t="s">
@@ -669,16 +714,18 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="12" t="s">
+        <v>34</v>
+      </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="I3" t="s">
@@ -692,13 +739,15 @@
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="12" t="s">
+        <v>30</v>
+      </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="I4" t="s">
@@ -712,41 +761,187 @@
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="D5" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>35</v>
+      </c>
       <c r="F5" s="2"/>
-      <c r="I5" t="s">
+      <c r="I5" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" t="s">
         <v>27</v>
-      </c>
-      <c r="J5" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="3"/>
+      <c r="E6" s="12" t="s">
+        <v>36</v>
+      </c>
       <c r="F6" s="2"/>
+      <c r="I6" s="11"/>
     </row>
     <row r="7" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="3"/>
+      <c r="E7" s="12" t="s">
+        <v>37</v>
+      </c>
       <c r="F7" s="2"/>
     </row>
+    <row r="8" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2">
+        <v>3</v>
+      </c>
+      <c r="E8" s="2">
+        <v>4</v>
+      </c>
+      <c r="F8" s="2">
+        <v>5</v>
+      </c>
+      <c r="G8" s="2">
+        <v>6</v>
+      </c>
+      <c r="H8" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I5:I6"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Pathfinding.xlsx
+++ b/Pathfinding.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EL_Bigos-1080ti\source\repos\EB_Library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C294EDE-D590-491D-8C59-B23C341A9B2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69CBEC54-BA1A-4A6E-A7DF-90D2F6ABE532}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="46455" yWindow="36060" windowWidth="21600" windowHeight="11265" xr2:uid="{7CB2180E-9D55-4E02-AFE8-264A4AE9D0BD}"/>
   </bookViews>
@@ -647,10 +647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41173B64-13B3-438C-9F44-B6A6DE11438E}">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="E11:F11"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="5.6328125" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -938,6 +938,32 @@
         <v>10</v>
       </c>
     </row>
+    <row r="15" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
+        <v>7</v>
+      </c>
+      <c r="B15" s="2">
+        <v>6</v>
+      </c>
+      <c r="C15" s="2">
+        <v>5</v>
+      </c>
+      <c r="D15" s="2">
+        <v>4</v>
+      </c>
+      <c r="E15" s="2">
+        <v>3</v>
+      </c>
+      <c r="F15" s="2">
+        <v>2</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="I5:I6"/>
